--- a/ifqe-portal-backend5/templates/3.7.4_Template.xlsx
+++ b/ifqe-portal-backend5/templates/3.7.4_Template.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHANDAN\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91981\OneDrive\Documents\ifqe\criteria 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7089C75-733A-4BA7-8E81-13BC69CDA925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24020D72-2607-43A3-B13B-6893AEE2261C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39F5C236-E504-4A16-A563-F792E5BF8CDF}"/>
   </bookViews>
@@ -20,28 +20,14 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">3.7.4 Graduation intake </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Sr.No</t>
@@ -53,40 +39,20 @@
     <t xml:space="preserve">Sanctioned intake </t>
   </si>
   <si>
-    <t>(as per convocation data)</t>
+    <t>No of student graduated  (as per convocation data)</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentage of </t>
-  </si>
-  <si>
-    <t>student graduated</t>
-  </si>
-  <si>
-    <t>No of student graduated</t>
+    <t xml:space="preserve">Percentage student graduated </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,11 +65,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="2"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -115,18 +87,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF002060"/>
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -139,77 +111,21 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -221,9 +137,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -233,9 +147,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -246,26 +158,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,132 +507,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE317864-A8AC-447A-AEC3-C79632771A9F}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="5" width="20.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+    <row r="2" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="14"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
